--- a/biology/Botanique/Vachellia_collinsii/Vachellia_collinsii.xlsx
+++ b/biology/Botanique/Vachellia_collinsii/Vachellia_collinsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vachellia collinsii, communément appelé Acacia de Collins[réf. nécessaire], est un arbuste épineux appartenant à la sous-famille des mimosidées qui se rencontre dans les plaines sèches et les savanes d'Amérique du Nord tropicale et d'Amérique centrale (du Mexique au Panama). C'est une espèce pionnière qui peut atteindre 8 m de haut.
-Myrmécophile, il vit en symbiose avec des fourmis du genre Crematogaster[4].
+Myrmécophile, il vit en symbiose avec des fourmis du genre Crematogaster.
 </t>
         </is>
       </c>
